--- a/doc/Test_Data_Surface_plot.xlsx
+++ b/doc/Test_Data_Surface_plot.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MegaM\OneDrive\Documents\College\Research For PUBLIC Inventors\lung simulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertread/PubInv/simulink-pressure-lung/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D128E26-8C6E-4351-B12C-595D5D8C4696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AEE63B-8A05-6C40-A20D-5DECA1188DDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="460" windowWidth="48700" windowHeight="25760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2375,7 +2372,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2434,7 +2431,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3375,7 +3372,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3420,7 +3417,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -4339,7 +4336,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -4384,7 +4381,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -5303,7 +5300,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -5348,7 +5345,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -6267,7 +6264,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -6312,7 +6309,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -7231,7 +7228,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -7276,7 +7273,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -8182,7 +8179,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -8227,7 +8224,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -9138,7 +9135,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -9183,7 +9180,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -10097,7 +10094,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -10142,7 +10139,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -11061,7 +11058,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -11106,7 +11103,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -13103,7 +13100,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -13148,7 +13145,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -14067,7 +14064,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -14112,7 +14109,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -14255,6 +14252,1781 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>3D</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Bar Plot for 20 bpm and Compliance of  25 (ml/cm H2O)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19277111194434027"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AK$10:$AO$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$11:$AO$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>350.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>339.267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>314.22579999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>183.9915</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.518475000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4B9-1343-A6FB-353E2AFF0204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AK$10:$AO$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$12:$AO$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>339.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>324.36900000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>295.43329999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>167.27209999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.382697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D4B9-1343-A6FB-353E2AFF0204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AK$10:$AO$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$13:$AO$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>328.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310.86500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>279.34160000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>154.68719999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.956256000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D4B9-1343-A6FB-353E2AFF0204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AK$10:$AO$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$14:$AO$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>300.45999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>277.82499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>243.57060000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.0189</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.310467000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D4B9-1343-A6FB-353E2AFF0204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AK$10:$AO$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$15:$AO$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>246.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>222.15199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>189.43109999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.259559999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.431654999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D4B9-1343-A6FB-353E2AFF0204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1371866032"/>
+        <c:axId val="1405844544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1371866032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rise</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405844544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1405844544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tidal</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Volume</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1371866032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.88857142857142857"/>
+          <c:y val="0.24419057787268117"/>
+          <c:w val="0.1034920634920635"/>
+          <c:h val="0.38135860136127053"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>3D</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Bar Plot for 20 bpm and Compliance of 50 (ml/cm H2O)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19277111194434027"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AK$18:$AO$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$19:$AO$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>559.54999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>503.66899999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>431.55669999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230.14349999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.466040000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9733-D84C-881C-0F8222984D44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AK$18:$AO$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$20:$AO$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>522.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>395.82729999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>206.69550000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.800645000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9733-D84C-881C-0F8222984D44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AK$18:$AO$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$21:$AO$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>487.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>432.57299999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>364.34539999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>187.8013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.67465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9733-D84C-881C-0F8222984D44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AK$18:$AO$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$22:$AO$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>414.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>363.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>303.1771</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>161.27760000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.00724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9733-D84C-881C-0F8222984D44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AK$18:$AO$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$23:$AO$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>326.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>286.89400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>241.9425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180.15289999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.984487999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9733-D84C-881C-0F8222984D44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1371866032"/>
+        <c:axId val="1405844544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1371866032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rise</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405844544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1405844544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tidal</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Volume</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1371866032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.88857142857142857"/>
+          <c:y val="0.24419057787268117"/>
+          <c:w val="0.1034920634920635"/>
+          <c:h val="0.38135860136127053"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -19110,7 +20882,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -19155,7 +20927,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -20077,7 +21849,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -20114,7 +21886,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -21041,7 +22813,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -21086,7 +22858,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -21632,7 +23404,87 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -26892,8 +28744,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -26916,6 +28768,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -27086,6 +28949,498 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -27354,6 +29709,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -31602,20 +34460,173 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Chart 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64ED1CA9-37B6-DD4B-A031-19E5666AC126}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Chart 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7C2A2C-ED38-7C41-90FE-BED6570674AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.81878</cdr:x>
+      <cdr:y>0.12105</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.27472</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F491A04-AF29-C841-A11A-EE2AAB9E0CB3}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3930650" y="340135"/>
+          <a:ext cx="869950" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="horz" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>Resistances (cm H2O/L/s)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.81878</cdr:x>
+      <cdr:y>0.12105</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.27472</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F491A04-AF29-C841-A11A-EE2AAB9E0CB3}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3930650" y="340135"/>
+          <a:ext cx="869950" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="horz" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>Resistances (cm H2O/L/s)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31917,32 +34928,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="BG87" sqref="BG87"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="BY16" sqref="BY16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
     <col min="8" max="8" width="28.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="13" max="13" width="28.5546875" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" customWidth="1"/>
-    <col min="15" max="15" width="9.88671875" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" customWidth="1"/>
-    <col min="34" max="34" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="28.5" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" customWidth="1"/>
+    <col min="34" max="34" width="17.5" customWidth="1"/>
     <col min="35" max="35" width="27.6640625" customWidth="1"/>
     <col min="36" max="36" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -32038,7 +35049,7 @@
       <c r="AN1" s="52"/>
       <c r="AO1" s="54"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -32134,7 +35145,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -32242,7 +35253,7 @@
         <v>26.003287</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -32348,7 +35359,7 @@
         <v>21.933339</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -32454,7 +35465,7 @@
         <v>19.083604000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -32560,7 +35571,7 @@
         <v>16.512322000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -32648,7 +35659,7 @@
         <v>18.299520000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -32731,7 +35742,7 @@
         <v>380.0365357743886</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -32787,7 +35798,7 @@
       <c r="AN9" s="52"/>
       <c r="AO9" s="54"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -32873,7 +35884,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -32945,7 +35956,7 @@
         <v>37.518475000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -33054,7 +36065,7 @@
         <v>41.382697</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -33159,7 +36170,7 @@
         <v>43.956256000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -33264,7 +36275,7 @@
         <v>48.310467000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -33369,7 +36380,7 @@
         <v>51.431654999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -33452,7 +36463,7 @@
         <v>381.93076073258624</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -33551,7 +36562,7 @@
       <c r="AN17" s="52"/>
       <c r="AO17" s="54"/>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -33620,7 +36631,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
@@ -33733,7 +36744,7 @@
         <v>95.466040000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -33798,7 +36809,7 @@
         <v>98.800645000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -33889,7 +36900,7 @@
         <v>100.67465</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -33978,7 +36989,7 @@
         <v>101.00724</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -34067,7 +37078,7 @@
         <v>93.984487999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -34134,7 +37145,7 @@
         <v>241.94249551960729</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -34217,7 +37228,7 @@
       <c r="AN25" s="52"/>
       <c r="AO25" s="54"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -34304,7 +37315,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -34366,7 +37377,7 @@
         <v>204.63944000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -34443,7 +37454,7 @@
         <v>197.39955</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0</v>
       </c>
@@ -34497,7 +37508,7 @@
         <v>189.79274000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
@@ -34587,7 +37598,7 @@
         <v>171.13046</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
@@ -34673,7 +37684,7 @@
         <v>140.29454000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0</v>
       </c>
@@ -34737,7 +37748,7 @@
         <v>380.04658875484927</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
@@ -34817,7 +37828,7 @@
       <c r="AN33" s="52"/>
       <c r="AO33" s="54"/>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0</v>
       </c>
@@ -34901,7 +37912,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0</v>
       </c>
@@ -34989,7 +38000,7 @@
         <v>332.31067000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0</v>
       </c>
@@ -35055,7 +38066,7 @@
         <v>307.10331000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0</v>
       </c>
@@ -35138,7 +38149,7 @@
         <v>284.34929</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0</v>
       </c>
@@ -35198,7 +38209,7 @@
         <v>238.39652000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0</v>
       </c>
@@ -35275,7 +38286,7 @@
         <v>179.18486999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0</v>
       </c>
@@ -35312,7 +38323,7 @@
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0</v>
       </c>
@@ -35396,7 +38407,7 @@
       <c r="AN41" s="52"/>
       <c r="AO41" s="54"/>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0</v>
       </c>
@@ -35482,7 +38493,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0</v>
       </c>
@@ -35570,7 +38581,7 @@
         <v>11.224783</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0</v>
       </c>
@@ -35656,7 +38667,7 @@
         <v>11.370227999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0</v>
       </c>
@@ -35742,7 +38753,7 @@
         <v>11.567098</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0</v>
       </c>
@@ -35828,7 +38839,7 @@
         <v>11.976587</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0</v>
       </c>
@@ -35894,7 +38905,7 @@
         <v>12.40498</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0</v>
       </c>
@@ -35972,7 +38983,7 @@
         <v>313.47585352947306</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0</v>
       </c>
@@ -36020,7 +39031,7 @@
       <c r="AN49" s="52"/>
       <c r="AO49" s="54"/>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0</v>
       </c>
@@ -36092,7 +39103,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0</v>
       </c>
@@ -36164,7 +39175,7 @@
         <v>28.007296</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0</v>
       </c>
@@ -36234,7 +39245,7 @@
         <v>28.938226</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0</v>
       </c>
@@ -36304,7 +39315,7 @@
         <v>29.466526000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0</v>
       </c>
@@ -36374,7 +39385,7 @@
         <v>29.703348999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0</v>
       </c>
@@ -36444,7 +39455,7 @@
         <v>28.177624999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0</v>
       </c>
@@ -36482,7 +39493,7 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0</v>
       </c>
@@ -36553,7 +39564,7 @@
       <c r="AN57" s="52"/>
       <c r="AO57" s="54"/>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0</v>
       </c>
@@ -36607,7 +39618,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0</v>
       </c>
@@ -36699,7 +39710,7 @@
         <v>57.113962999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0</v>
       </c>
@@ -36785,7 +39796,7 @@
         <v>56.433084999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0</v>
       </c>
@@ -36871,7 +39882,7 @@
         <v>55.137269000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0</v>
       </c>
@@ -36957,7 +39968,7 @@
         <v>50.982925000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0</v>
       </c>
@@ -37043,7 +40054,7 @@
         <v>43.546433</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0</v>
       </c>
@@ -37107,7 +40118,7 @@
         <v>340.67140780368999</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0</v>
       </c>
@@ -37167,7 +40178,7 @@
       <c r="AN65" s="52"/>
       <c r="AO65" s="54"/>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0</v>
       </c>
@@ -37250,7 +40261,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0</v>
       </c>
@@ -37312,7 +40323,7 @@
         <v>98.306342000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0</v>
       </c>
@@ -37389,7 +40400,7 @@
         <v>91.761391000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0</v>
       </c>
@@ -37448,7 +40459,7 @@
         <v>86.017582000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0</v>
       </c>
@@ -37538,7 +40549,7 @@
         <v>74.264325999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0</v>
       </c>
@@ -37624,7 +40635,7 @@
         <v>58.168106000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0</v>
       </c>
@@ -37688,7 +40699,7 @@
         <v>995.84623527158078</v>
       </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0</v>
       </c>
@@ -37768,7 +40779,7 @@
       <c r="AN73" s="52"/>
       <c r="AO73" s="54"/>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0</v>
       </c>
@@ -37854,7 +40865,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0</v>
       </c>
@@ -37942,7 +40953,7 @@
         <v>140.37477000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0</v>
       </c>
@@ -38010,7 +41021,7 @@
         <v>126.86588999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0</v>
       </c>
@@ -38110,7 +41121,7 @@
         <v>115.54803</v>
       </c>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0</v>
       </c>
@@ -38164,7 +41175,7 @@
         <v>94.219522999999995</v>
       </c>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>250</v>
       </c>
@@ -38236,7 +41247,7 @@
         <v>68.893584000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>250</v>
       </c>
@@ -38284,7 +41295,7 @@
         <v>456.93912693507269</v>
       </c>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>250</v>
       </c>
@@ -38348,7 +41359,7 @@
       <c r="AN81" s="52"/>
       <c r="AO81" s="54"/>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>250</v>
       </c>
@@ -38418,7 +41429,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>250</v>
       </c>
@@ -38488,7 +41499,7 @@
         <v>105.24002</v>
       </c>
     </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>250</v>
       </c>
@@ -38558,7 +41569,7 @@
         <v>97.318703999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>250</v>
       </c>
@@ -38618,7 +41629,7 @@
         <v>90.208579</v>
       </c>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>250</v>
       </c>
@@ -38695,7 +41706,7 @@
         <v>79.831058999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>250</v>
       </c>
@@ -38749,7 +41760,7 @@
         <v>70.695948999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>250</v>
       </c>
@@ -38781,7 +41792,7 @@
         <v>56.262280780115219</v>
       </c>
     </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>250</v>
       </c>
@@ -38829,7 +41840,7 @@
       <c r="AN89" s="52"/>
       <c r="AO89" s="54"/>
     </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>250</v>
       </c>
@@ -38883,7 +41894,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>250</v>
       </c>
@@ -38939,7 +41950,7 @@
         <v>190.57552999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>250</v>
       </c>
@@ -38993,7 +42004,7 @@
         <v>177.05896999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>250</v>
       </c>
@@ -39047,7 +42058,7 @@
         <v>166.51964000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>250</v>
       </c>
@@ -39101,7 +42112,7 @@
         <v>143.94654</v>
       </c>
     </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>250</v>
       </c>
@@ -39155,7 +42166,7 @@
         <v>111.65779999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>250</v>
       </c>
@@ -39187,7 +42198,7 @@
         <v>40.001547855136714</v>
       </c>
     </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>250</v>
       </c>
@@ -39235,7 +42246,7 @@
       <c r="AN97" s="52"/>
       <c r="AO97" s="54"/>
     </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>250</v>
       </c>
@@ -39289,7 +42300,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>250</v>
       </c>
@@ -39345,7 +42356,7 @@
         <v>276.38549999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>250</v>
       </c>
@@ -39399,7 +42410,7 @@
         <v>251.01741000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>250</v>
       </c>
@@ -39453,7 +42464,7 @@
         <v>228.94582</v>
       </c>
     </row>
-    <row r="102" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>250</v>
       </c>
@@ -39507,7 +42518,7 @@
         <v>185.9659</v>
       </c>
     </row>
-    <row r="103" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>250</v>
       </c>
@@ -39561,7 +42572,7 @@
         <v>140.24741</v>
       </c>
     </row>
-    <row r="104" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>250</v>
       </c>
@@ -39593,7 +42604,7 @@
         <v>50.768957922105976</v>
       </c>
     </row>
-    <row r="105" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>250</v>
       </c>
@@ -39641,7 +42652,7 @@
       <c r="AN105" s="52"/>
       <c r="AO105" s="54"/>
     </row>
-    <row r="106" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>250</v>
       </c>
@@ -39695,7 +42706,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="107" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>250</v>
       </c>
@@ -39751,7 +42762,7 @@
         <v>339.50767999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>250</v>
       </c>
@@ -39805,7 +42816,7 @@
         <v>303.50299000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>250</v>
       </c>
@@ -39859,7 +42870,7 @@
         <v>279.02186999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>250</v>
       </c>
@@ -39913,7 +42924,7 @@
         <v>308.20814000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>250</v>
       </c>
@@ -39967,7 +42978,7 @@
         <v>340.67140999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>250</v>
       </c>
@@ -39999,7 +43010,7 @@
         <v>42.486885691296479</v>
       </c>
     </row>
-    <row r="113" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>250</v>
       </c>
@@ -40047,7 +43058,7 @@
       <c r="AN113" s="52"/>
       <c r="AO113" s="54"/>
     </row>
-    <row r="114" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>250</v>
       </c>
@@ -40101,7 +43112,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="115" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>250</v>
       </c>
@@ -40157,7 +43168,7 @@
         <v>664.86049000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>250</v>
       </c>
@@ -40211,7 +43222,7 @@
         <v>691.23934999999994</v>
       </c>
     </row>
-    <row r="117" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>250</v>
       </c>
@@ -40265,7 +43276,7 @@
         <v>687.56209999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>250</v>
       </c>
@@ -40319,7 +43330,7 @@
         <v>613.48176999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>250</v>
       </c>
@@ -40373,7 +43384,7 @@
         <v>494.87495000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>250</v>
       </c>
@@ -40405,7 +43416,7 @@
         <v>49.886069221108507</v>
       </c>
     </row>
-    <row r="121" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>250</v>
       </c>
@@ -40437,7 +43448,7 @@
         <v>47.167489296596045</v>
       </c>
     </row>
-    <row r="122" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>250</v>
       </c>
@@ -40469,7 +43480,7 @@
         <v>51.501048898002963</v>
       </c>
     </row>
-    <row r="123" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>250</v>
       </c>
@@ -40501,7 +43512,7 @@
         <v>55.246963192052569</v>
       </c>
     </row>
-    <row r="124" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>250</v>
       </c>
@@ -40533,7 +43544,7 @@
         <v>32.212600275356976</v>
       </c>
     </row>
-    <row r="125" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>250</v>
       </c>
@@ -40565,7 +43576,7 @@
         <v>32.258093817642624</v>
       </c>
     </row>
-    <row r="126" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>250</v>
       </c>
@@ -40597,7 +43608,7 @@
         <v>32.404778908833364</v>
       </c>
     </row>
-    <row r="127" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>250</v>
       </c>
@@ -40629,7 +43640,7 @@
         <v>36.24333609673149</v>
       </c>
     </row>
-    <row r="128" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>250</v>
       </c>
@@ -40661,7 +43672,7 @@
         <v>36.304383462709282</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>250</v>
       </c>
@@ -40693,7 +43704,7 @@
         <v>36.059343978697704</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>250</v>
       </c>
@@ -40725,7 +43736,7 @@
         <v>37.70960405720929</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>250</v>
       </c>
@@ -40757,7 +43768,7 @@
         <v>37.421304501261453</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>250</v>
       </c>
@@ -40789,7 +43800,7 @@
         <v>37.767355034630185</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>250</v>
       </c>
@@ -40821,7 +43832,7 @@
         <v>38.091359136725877</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>250</v>
       </c>
@@ -40853,7 +43864,7 @@
         <v>38.797044325028097</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>250</v>
       </c>
@@ -40885,7 +43896,7 @@
         <v>42.954737585312898</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>250</v>
       </c>
@@ -40917,7 +43928,7 @@
         <v>39.747357755864783</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>250</v>
       </c>
@@ -40949,7 +43960,7 @@
         <v>44.156720787433336</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>250</v>
       </c>
@@ -40981,7 +43992,7 @@
         <v>46.703647010925877</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>250</v>
       </c>
@@ -41013,7 +44024,7 @@
         <v>26.681985611868818</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>250</v>
       </c>
@@ -41045,7 +44056,7 @@
         <v>26.7284937975265</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>250</v>
       </c>
@@ -41077,7 +44088,7 @@
         <v>26.807381633552879</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>250</v>
       </c>
@@ -41109,7 +44120,7 @@
         <v>28.67982184461356</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>250</v>
       </c>
@@ -41141,7 +44152,7 @@
         <v>28.456793056362709</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>250</v>
       </c>
@@ -41173,7 +44184,7 @@
         <v>28.316053291392393</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>250</v>
       </c>
@@ -41205,7 +44216,7 @@
         <v>29.006457642351069</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>250</v>
       </c>
@@ -41237,7 +44248,7 @@
         <v>29.008558229287413</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>250</v>
       </c>
@@ -41269,7 +44280,7 @@
         <v>30.96440915689989</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>250</v>
       </c>
@@ -41301,7 +44312,7 @@
         <v>29.917775594180778</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>250</v>
       </c>
@@ -41333,7 +44344,7 @@
         <v>32.066040392275333</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>250</v>
       </c>
@@ -41365,7 +44376,7 @@
         <v>34.503869088447594</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>250</v>
       </c>
@@ -41397,7 +44408,7 @@
         <v>33.23828949014522</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>250</v>
       </c>
@@ -41429,7 +44440,7 @@
         <v>35.469694245881101</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>250</v>
       </c>
@@ -41461,7 +44472,7 @@
         <v>36.627323230013047</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>500</v>
       </c>
@@ -41493,7 +44504,7 @@
         <v>26.916138496771964</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>500</v>
       </c>
@@ -41525,7 +44536,7 @@
         <v>26.950526810758152</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>500</v>
       </c>
@@ -41557,7 +44568,7 @@
         <v>27.193998105335424</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>500</v>
       </c>
@@ -41589,7 +44600,7 @@
         <v>41.78410520409507</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>500</v>
       </c>
@@ -41621,7 +44632,7 @@
         <v>41.946675424376281</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>500</v>
       </c>
@@ -41653,7 +44664,7 @@
         <v>42.066934746530208</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>500</v>
       </c>
@@ -41685,7 +44696,7 @@
         <v>49.546663569982925</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>500</v>
       </c>
@@ -41717,7 +44728,7 @@
         <v>49.512662498438914</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>500</v>
       </c>
@@ -41749,7 +44760,7 @@
         <v>49.56660400846441</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>500</v>
       </c>
@@ -41781,7 +44792,7 @@
         <v>54.03673677761153</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>500</v>
       </c>
@@ -41813,7 +44824,7 @@
         <v>53.925989104218495</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>500</v>
       </c>
@@ -41845,7 +44856,7 @@
         <v>58.32519084859176</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>500</v>
       </c>
@@ -41877,7 +44888,7 @@
         <v>56.381873068911851</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>500</v>
       </c>
@@ -41909,7 +44920,7 @@
         <v>60.44655396603391</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>500</v>
       </c>
@@ -41941,7 +44952,7 @@
         <v>65.107944856124817</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>500</v>
       </c>
@@ -41973,7 +44984,7 @@
         <v>26.251397849087798</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>500</v>
       </c>
@@ -42005,7 +45016,7 @@
         <v>26.299249974342011</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>500</v>
       </c>
@@ -42037,7 +45048,7 @@
         <v>26.530350588669332</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>500</v>
       </c>
@@ -42069,7 +45080,7 @@
         <v>38.968322686051948</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>500</v>
       </c>
@@ -42101,7 +45112,7 @@
         <v>39.085465965248822</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>500</v>
       </c>
@@ -42133,7 +45144,7 @@
         <v>39.096730931197975</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>500</v>
       </c>
@@ -42165,7 +45176,7 @@
         <v>45.5210535056803</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>500</v>
       </c>
@@ -42197,7 +45208,7 @@
         <v>45.450427990327604</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>500</v>
       </c>
@@ -42229,7 +45240,7 @@
         <v>45.525722459186618</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>500</v>
       </c>
@@ -42261,7 +45272,7 @@
         <v>49.105091195817288</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>500</v>
       </c>
@@ -42293,7 +45304,7 @@
         <v>49.026322664903113</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>500</v>
       </c>
@@ -42325,7 +45336,7 @@
         <v>54.018369615066263</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>500</v>
       </c>
@@ -42357,7 +45368,7 @@
         <v>50.982942860896301</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>500</v>
       </c>
@@ -42389,7 +45400,7 @@
         <v>55.796921372991171</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>500</v>
       </c>
@@ -42421,7 +45432,7 @@
         <v>59.910408809156202</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>500</v>
       </c>
@@ -42453,7 +45464,7 @@
         <v>25.45965355207829</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>500</v>
       </c>
@@ -42485,7 +45496,7 @@
         <v>25.517517092811158</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>500</v>
       </c>
@@ -42517,7 +45528,7 @@
         <v>25.732690803390817</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>500</v>
       </c>
@@ -42549,7 +45560,7 @@
         <v>36.496469055275092</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>500</v>
       </c>
@@ -42581,7 +45592,7 @@
         <v>36.584077679198884</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>500</v>
       </c>
@@ -42613,7 +45624,7 @@
         <v>36.587400266528135</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>500</v>
       </c>
@@ -42645,7 +45656,7 @@
         <v>42.002340922864391</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>500</v>
       </c>
@@ -42677,7 +45688,7 @@
         <v>41.849126008262246</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>500</v>
       </c>
@@ -42709,7 +45720,7 @@
         <v>42.620247930080552</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>500</v>
       </c>
@@ -42741,7 +45752,7 @@
         <v>44.811644692432182</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>500</v>
       </c>
@@ -42773,7 +45784,7 @@
         <v>44.961489751093033</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>500</v>
       </c>
@@ -42805,7 +45816,7 @@
         <v>50.259818656669879</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>500</v>
       </c>
@@ -42837,7 +45848,7 @@
         <v>46.498298270545042</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>500</v>
       </c>
@@ -42869,7 +45880,7 @@
         <v>51.742441204184431</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>500</v>
       </c>
@@ -42901,7 +45912,7 @@
         <v>55.323993329532342</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>500</v>
       </c>
@@ -42933,7 +45944,7 @@
         <v>23.458953596468668</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>500</v>
       </c>
@@ -42965,7 +45976,7 @@
         <v>23.528047155593423</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>500</v>
       </c>
@@ -42997,7 +46008,7 @@
         <v>23.66069907423304</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>500</v>
       </c>
@@ -43029,7 +46040,7 @@
         <v>31.389178590020091</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>500</v>
       </c>
@@ -43061,7 +46072,7 @@
         <v>31.389614739919679</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>500</v>
       </c>
@@ -43093,7 +46104,7 @@
         <v>31.355551424850848</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>500</v>
       </c>
@@ -43125,7 +46136,7 @@
         <v>35.015819744136252</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>500</v>
       </c>
@@ -43157,7 +46168,7 @@
         <v>34.729267933378814</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>500</v>
       </c>
@@ -43189,7 +46200,7 @@
         <v>36.996901063627568</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>500</v>
       </c>
@@ -43221,7 +46232,7 @@
         <v>36.585414560091529</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>500</v>
       </c>
@@ -43253,7 +46264,7 @@
         <v>38.190576650604321</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>500</v>
       </c>
@@ -43285,7 +46296,7 @@
         <v>42.719255325368366</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>500</v>
       </c>
@@ -43317,7 +46328,7 @@
         <v>38.89281127886062</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>500</v>
       </c>
@@ -43349,7 +46360,7 @@
         <v>43.837441930101171</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>500</v>
       </c>
@@ -43381,7 +46392,7 @@
         <v>46.404359492263893</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>500</v>
       </c>
@@ -43413,7 +46424,7 @@
         <v>20.182652072764796</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>500</v>
       </c>
@@ -43445,7 +46456,7 @@
         <v>20.254695811667723</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>500</v>
       </c>
@@ -43477,7 +46488,7 @@
         <v>20.324081857462666</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>500</v>
       </c>
@@ -43509,7 +46520,7 @@
         <v>24.753381526847665</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>500</v>
       </c>
@@ -43541,7 +46552,7 @@
         <v>24.632983183860357</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>500</v>
       </c>
@@ -43573,7 +46584,7 @@
         <v>24.890024984744461</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>500</v>
       </c>
@@ -43605,7 +46616,7 @@
         <v>26.241669711412829</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>500</v>
       </c>
@@ -43637,7 +46648,7 @@
         <v>26.415582100790662</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>500</v>
       </c>
@@ -43669,7 +46680,7 @@
         <v>29.407008581886402</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>500</v>
       </c>
@@ -43701,7 +46712,7 @@
         <v>27.328718490214055</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>500</v>
       </c>
@@ -43733,7 +46744,7 @@
         <v>30.326739425029711</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>500</v>
       </c>
@@ -43765,7 +46776,7 @@
         <v>32.866107161181468</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>500</v>
       </c>
@@ -43797,7 +46808,7 @@
         <v>31.045554273139839</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>500</v>
       </c>
@@ -43829,7 +46840,7 @@
         <v>33.639353729750006</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>500</v>
       </c>
@@ -43861,7 +46872,7 @@
         <v>34.99928420080451</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1000</v>
       </c>
@@ -43893,7 +46904,7 @@
         <v>14.366199287473462</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1000</v>
       </c>
@@ -43925,7 +46936,7 @@
         <v>14.578337146347335</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>1000</v>
       </c>
@@ -43958,7 +46969,7 @@
       </c>
       <c r="L231" s="20"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>1000</v>
       </c>
@@ -43990,7 +47001,7 @@
         <v>28.198526136632573</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>1000</v>
       </c>
@@ -44022,7 +47033,7 @@
         <v>27.525648229533935</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1000</v>
       </c>
@@ -44054,7 +47065,7 @@
         <v>22.455660487510961</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1000</v>
       </c>
@@ -44086,7 +47097,7 @@
         <v>40.497344429297883</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>1000</v>
       </c>
@@ -44118,7 +47129,7 @@
         <v>37.838763876345304</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>1000</v>
       </c>
@@ -44150,7 +47161,7 @@
         <v>29.569912600822761</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>1000</v>
       </c>
@@ -44182,7 +47193,7 @@
         <v>49.016831415168873</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>1000</v>
       </c>
@@ -44214,7 +47225,7 @@
         <v>46.496598868644739</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>1000</v>
       </c>
@@ -44246,7 +47257,7 @@
         <v>36.552727660448198</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>1000</v>
       </c>
@@ -44278,7 +47289,7 @@
         <v>53.931592250073173</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1000</v>
       </c>
@@ -44310,7 +47321,7 @@
         <v>55.553002449271389</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1000</v>
       </c>
@@ -44342,7 +47353,7 @@
         <v>41.571587184327115</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>1000</v>
       </c>
@@ -44374,7 +47385,7 @@
         <v>13.90280159176308</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1000</v>
       </c>
@@ -44406,7 +47417,7 @@
         <v>14.08537046643454</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>1000</v>
       </c>
@@ -44438,7 +47449,7 @@
         <v>13.820831782758635</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>1000</v>
       </c>
@@ -44470,7 +47481,7 @@
         <v>27.213921790500493</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1000</v>
       </c>
@@ -44502,7 +47513,7 @@
         <v>26.311884266102755</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1000</v>
       </c>
@@ -44534,7 +47545,7 @@
         <v>21.044019612895486</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>1000</v>
       </c>
@@ -44566,7 +47577,7 @@
         <v>37.780439348411107</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>1000</v>
       </c>
@@ -44598,7 +47609,7 @@
         <v>34.975461315690943</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>1000</v>
       </c>
@@ -44630,7 +47641,7 @@
         <v>27.429235887096102</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>1000</v>
       </c>
@@ -44662,7 +47673,7 @@
         <v>44.881198061329918</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>1000</v>
       </c>
@@ -44694,7 +47705,7 @@
         <v>43.271088294198201</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>1000</v>
       </c>
@@ -44726,7 +47737,7 @@
         <v>33.198503720414479</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>1000</v>
       </c>
@@ -44758,7 +47769,7 @@
         <v>49.128443568242886</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>1000</v>
       </c>
@@ -44790,7 +47801,7 @@
         <v>51.197113399802113</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>1000</v>
       </c>
@@ -44822,7 +47833,7 @@
         <v>37.395742525876607</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>1000</v>
       </c>
@@ -44854,7 +47865,7 @@
         <v>13.653951366764662</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>1000</v>
       </c>
@@ -44886,7 +47897,7 @@
         <v>13.789913566793139</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>1000</v>
       </c>
@@ -44918,7 +47929,7 @@
         <v>13.035086173495381</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>1000</v>
       </c>
@@ -44950,7 +47961,7 @@
         <v>26.235457280330799</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1000</v>
       </c>
@@ -44982,7 +47993,7 @@
         <v>25.163390827130581</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1000</v>
       </c>
@@ -45014,7 +48025,7 @@
         <v>19.811355157760442</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>1000</v>
       </c>
@@ -45046,7 +48057,7 @@
         <v>35.295097848488957</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1000</v>
       </c>
@@ -45078,7 +48089,7 @@
         <v>32.431060320024798</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1000</v>
       </c>
@@ -45110,7 +48121,7 @@
         <v>25.586503087661399</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>1000</v>
       </c>
@@ -45142,7 +48153,7 @@
         <v>41.226522707325991</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>1000</v>
       </c>
@@ -45174,7 +48185,7 @@
         <v>40.412884647051889</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1000</v>
       </c>
@@ -45206,7 +48217,7 @@
         <v>30.344970298343227</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1000</v>
       </c>
@@ -45238,7 +48249,7 @@
         <v>45.287611060409773</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>1000</v>
       </c>
@@ -45270,7 +48281,7 @@
         <v>47.355468751002441</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>1000</v>
       </c>
@@ -45302,7 +48313,7 @@
         <v>33.911640408141935</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>1000</v>
       </c>
@@ -45334,7 +48345,7 @@
         <v>13.492191631529781</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>1000</v>
       </c>
@@ -45366,7 +48377,7 @@
         <v>13.460063816870996</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>1000</v>
       </c>
@@ -45398,7 +48409,7 @@
         <v>11.566440148254767</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>1000</v>
       </c>
@@ -45430,7 +48441,7 @@
         <v>23.844569304321677</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>1000</v>
       </c>
@@ -45462,7 +48473,7 @@
         <v>22.467754608533493</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>1000</v>
       </c>
@@ -45494,7 +48505,7 @@
         <v>17.344829249661831</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>1000</v>
       </c>
@@ -45526,7 +48537,7 @@
         <v>30.053853037925446</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>1000</v>
       </c>
@@ -45558,7 +48569,7 @@
         <v>27.622261453795645</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>1000</v>
       </c>
@@ -45590,7 +48601,7 @@
         <v>21.861735676408294</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>1000</v>
       </c>
@@ -45622,7 +48633,7 @@
         <v>33.99377197212258</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>1000</v>
       </c>
@@ -45654,7 +48665,7 @@
         <v>34.5727558326628</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>1000</v>
       </c>
@@ -45686,7 +48697,7 @@
         <v>25.298536061037741</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>1000</v>
       </c>
@@ -45718,7 +48729,7 @@
         <v>38.854993261375782</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>1000</v>
       </c>
@@ -45750,7 +48761,7 @@
         <v>39.655962386789689</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>1000</v>
       </c>
@@ -45782,7 +48793,7 @@
         <v>27.537044344540238</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>1000</v>
       </c>
@@ -45814,7 +48825,7 @@
         <v>12.77649034626125</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>1000</v>
       </c>
@@ -45846,7 +48857,7 @@
         <v>12.453678366594639</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>1000</v>
       </c>
@@ -45878,7 +48889,7 @@
         <v>9.9970664975867418</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>1000</v>
       </c>
@@ -45910,7 +48921,7 @@
         <v>19.751476833056703</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>1000</v>
       </c>
@@ -45942,7 +48953,7 @@
         <v>18.190639022631288</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>1000</v>
       </c>
@@ -45974,7 +48985,7 @@
         <v>14.075938236985738</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>1000</v>
       </c>
@@ -46006,7 +49017,7 @@
         <v>23.143547628951836</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>1000</v>
       </c>
@@ -46038,7 +49049,7 @@
         <v>22.616898408932691</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>1000</v>
       </c>
@@ -46070,7 +49081,7 @@
         <v>16.90930139659174</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>1000</v>
       </c>
@@ -46102,7 +49113,7 @@
         <v>25.612204700302385</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>1000</v>
       </c>
@@ -46134,7 +49145,7 @@
         <v>26.811602211689063</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>1000</v>
       </c>
@@ -46166,7 +49177,7 @@
         <v>18.930964019977775</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>1000</v>
       </c>
@@ -46198,7 +49209,7 @@
         <v>30.108094031753787</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1000</v>
       </c>
@@ -46230,7 +49241,7 @@
         <v>29.657678709620317</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>1000</v>
       </c>
@@ -46262,7 +49273,7 @@
         <v>20.201053974040391</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2000</v>
       </c>
@@ -46294,7 +49305,7 @@
         <v>7.3882200833909311</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2000</v>
       </c>
@@ -46327,7 +49338,7 @@
       </c>
       <c r="L305" s="20"/>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2000</v>
       </c>
@@ -46359,7 +49370,7 @@
         <v>6.7110448359090755</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2000</v>
       </c>
@@ -46391,7 +49402,7 @@
         <v>15.220612804026015</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2000</v>
       </c>
@@ -46423,7 +49434,7 @@
         <v>12.489583139316119</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2000</v>
       </c>
@@ -46455,7 +49466,7 @@
         <v>11.113503351667083</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2000</v>
       </c>
@@ -46487,7 +49498,7 @@
         <v>25.024505837487727</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>2000</v>
       </c>
@@ -46519,7 +49530,7 @@
         <v>18.874467896846102</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>2000</v>
       </c>
@@ -46551,7 +49562,7 @@
         <v>15.560067367481697</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2000</v>
       </c>
@@ -46583,7 +49594,7 @@
         <v>33.488911565091357</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>2000</v>
       </c>
@@ -46615,7 +49626,7 @@
         <v>25.643783864730882</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2000</v>
       </c>
@@ -46647,7 +49658,7 @@
         <v>19.784186222522624</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2000</v>
       </c>
@@ -46679,7 +49690,7 @@
         <v>42.60692908350525</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2000</v>
       </c>
@@ -46711,7 +49722,7 @@
         <v>31.149842421867895</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>2000</v>
       </c>
@@ -46743,7 +49754,7 @@
         <v>22.731395850550811</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>2000</v>
       </c>
@@ -46775,7 +49786,7 @@
         <v>7.1267015609873949</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>2000</v>
       </c>
@@ -46807,7 +49818,7 @@
         <v>7.0983878306620625</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2000</v>
       </c>
@@ -46839,7 +49850,7 @@
         <v>6.318234918379324</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2000</v>
       </c>
@@ -46871,7 +49882,7 @@
         <v>15.013013555845838</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2000</v>
       </c>
@@ -46903,7 +49914,7 @@
         <v>11.819111747182788</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2000</v>
       </c>
@@ -46935,7 +49946,7 @@
         <v>10.339457126301683</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2000</v>
       </c>
@@ -46967,7 +49978,7 @@
         <v>23.710364313032226</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>2000</v>
       </c>
@@ -46999,7 +50010,7 @@
         <v>17.552203042521842</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2000</v>
       </c>
@@ -47031,7 +50042,7 @@
         <v>14.068739378403254</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>2000</v>
       </c>
@@ -47063,7 +50074,7 @@
         <v>30.593319613952524</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2000</v>
       </c>
@@ -47095,7 +50106,7 @@
         <v>23.563143329432574</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>2000</v>
       </c>
@@ -47127,7 +50138,7 @@
         <v>17.478788641806222</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>2000</v>
       </c>
@@ -47159,7 +50170,7 @@
         <v>39.442428257053614</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>2000</v>
       </c>
@@ -47191,7 +50202,7 @@
         <v>28.149029070599607</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>2000</v>
       </c>
@@ -47223,7 +50234,7 @@
         <v>19.921316657670094</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>2000</v>
       </c>
@@ -47255,7 +50266,7 @@
         <v>6.9589031003989046</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2000</v>
       </c>
@@ -47287,7 +50298,7 @@
         <v>6.7558475176077604</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>2000</v>
       </c>
@@ -47319,7 +50330,7 @@
         <v>6.0509233718458706</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2000</v>
       </c>
@@ -47351,7 +50362,7 @@
         <v>14.716391042908967</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>2000</v>
       </c>
@@ -47383,7 +50394,7 @@
         <v>11.244462803994344</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>2000</v>
       </c>
@@ -47415,7 +50426,7 @@
         <v>9.6685980840048344</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>2000</v>
       </c>
@@ -47447,7 +50458,7 @@
         <v>22.422159074398206</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>2000</v>
       </c>
@@ -47479,7 +50490,7 @@
         <v>16.424337062162383</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>2000</v>
       </c>
@@ -47511,7 +50522,7 @@
         <v>12.860294153653969</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>2000</v>
       </c>
@@ -47543,7 +50554,7 @@
         <v>28.269270294383322</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2000</v>
       </c>
@@ -47575,7 +50586,7 @@
         <v>21.73841541816202</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>2000</v>
       </c>
@@ -47607,7 +50618,7 @@
         <v>15.638548811656948</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>2000</v>
       </c>
@@ -47639,7 +50650,7 @@
         <v>36.646290401346931</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>2000</v>
       </c>
@@ -47671,7 +50682,7 @@
         <v>25.700329223788053</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>2000</v>
       </c>
@@ -47703,7 +50714,7 @@
         <v>17.644829272170753</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>2000</v>
       </c>
@@ -47735,7 +50746,7 @@
         <v>6.858253846514283</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>2000</v>
       </c>
@@ -47767,7 +50778,7 @@
         <v>6.027269744808188</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>2000</v>
       </c>
@@ -47799,7 +50810,7 @@
         <v>5.4995152517817099</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>2000</v>
       </c>
@@ -47831,7 +50842,7 @@
         <v>13.779161578140542</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>2000</v>
       </c>
@@ -47863,7 +50874,7 @@
         <v>10.113451773619346</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>2000</v>
       </c>
@@ -47895,7 +50906,7 @@
         <v>8.3571149839451238</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>2000</v>
       </c>
@@ -47927,7 +50938,7 @@
         <v>19.477967912527671</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>2000</v>
       </c>
@@ -47959,7 +50970,7 @@
         <v>14.200595403363421</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>2000</v>
       </c>
@@ -47991,7 +51002,7 @@
         <v>10.628266778134293</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>2000</v>
       </c>
@@ -48023,7 +51034,7 @@
         <v>24.825748398039906</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>2000</v>
       </c>
@@ -48055,7 +51066,7 @@
         <v>18.08615326726547</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>2000</v>
       </c>
@@ -48087,7 +51098,7 @@
         <v>12.450762598603781</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>2000</v>
       </c>
@@ -48119,7 +51130,7 @@
         <v>30.971478762566626</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>2000</v>
       </c>
@@ -48151,7 +51162,7 @@
         <v>20.920737422765175</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>2000</v>
       </c>
@@ -48183,7 +51194,7 @@
         <v>13.691119125168177</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2000</v>
       </c>
@@ -48215,7 +51226,7 @@
         <v>6.7172182589516805</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2000</v>
       </c>
@@ -48247,7 +51258,7 @@
         <v>5.3563541301339415</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>2000</v>
       </c>
@@ -48279,7 +51290,7 @@
         <v>4.7382901689152854</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>2000</v>
       </c>
@@ -48311,7 +51322,7 @@
         <v>11.827702173363429</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>2000</v>
       </c>
@@ -48343,7 +51354,7 @@
         <v>8.5552866842525983</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>2000</v>
       </c>
@@ -48375,7 +51386,7 @@
         <v>6.6813193091970247</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>2000</v>
       </c>
@@ -48407,7 +51418,7 @@
         <v>15.206958799108282</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2000</v>
       </c>
@@ -48439,7 +51450,7 @@
         <v>11.255225473447334</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>2000</v>
       </c>
@@ -48471,7 +51482,7 @@
         <v>8.0060397100065135</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>2000</v>
       </c>
@@ -48503,7 +51514,7 @@
         <v>19.926081154467933</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>2000</v>
       </c>
@@ -48535,7 +51546,7 @@
         <v>13.503399520218293</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>2000</v>
       </c>
@@ -48567,7 +51578,7 @@
         <v>8.9817057766835813</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>2000</v>
       </c>
@@ -48599,7 +51610,7 @@
         <v>23.685992055621902</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>2000</v>
       </c>
@@ -48631,7 +51642,7 @@
         <v>15.036001269605393</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>2000</v>
       </c>
@@ -48663,7 +51674,7 @@
         <v>9.5934093612639142</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>2000</v>
       </c>
@@ -48695,10 +51706,10 @@
         <v>7.3882200833909311</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B380" s="20"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B381" s="20"/>
     </row>
   </sheetData>
